--- a/biology/Botanique/Légume-feuille/Légume-feuille.xlsx
+++ b/biology/Botanique/Légume-feuille/Légume-feuille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9gume-feuille</t>
+          <t>Légume-feuille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un légume-feuille est un légume dont la partie consommée correspond à la feuille de la plante. Ces légumes sont souvent consommés crus, en salade, avec un assaisonnement destiné à en relever le goût. Certains, notamment les choux, sont cuisinés et préparés de diverses manières.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9gume-feuille</t>
+          <t>Légume-feuille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les légumes-feuilles sont faibles en calories, faibles en gras, riche en protéines par calorie, riche en fibres alimentaires, riches en fer et en calcium, et très élevés en composés phytochimiques tels que la vitamine C, caroténoïdes, lutéine (antioxydant), acide folique ainsi que vitamine K.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9gume-feuille</t>
+          <t>Légume-feuille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Salades
 Cresson
